--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6BAECE5-6414-7E4C-8BCA-F262EE7A4406}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438ADDA-3C0F-1E42-8A34-98D73E74E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -24,15 +24,19 @@
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
     <sheet name="Sequences" sheetId="10" r:id="rId11"/>
+    <sheet name="LC Protocols" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="520">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1056,9 +1060,6 @@
     <t>LC Protocol</t>
   </si>
   <si>
-    <t>LC Run Length</t>
-  </si>
-  <si>
     <t>xzl1_brain.mzXML</t>
   </si>
   <si>
@@ -1551,9 +1552,6 @@
     <t>Polarity</t>
   </si>
   <si>
-    <t>LC Description</t>
-  </si>
-  <si>
     <t>Sequence Number</t>
   </si>
   <si>
@@ -1594,6 +1592,21 @@
   </si>
   <si>
     <t>isoleucine-[13C6,15N1]</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>LC Protocol Name</t>
+  </si>
+  <si>
+    <t>polar-HILIC-25-min</t>
+  </si>
+  <si>
+    <t>Run Length</t>
+  </si>
+  <si>
+    <t>Polar HILIC is the way to go!</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1617,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1649,16 +1662,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1666,11 +1692,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD4D4D4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD4D4D4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD4D4D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1694,6 +1735,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,9 +1826,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1820,7 +1866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1926,7 +1972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2068,7 +2114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2092,7 +2138,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>213</v>
@@ -2107,7 +2153,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -2153,10 +2199,10 @@
         <v>334</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>503</v>
       </c>
       <c r="L1" s="14"/>
     </row>
@@ -2168,13 +2214,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2188,13 +2234,13 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2208,13 +2254,13 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2228,13 +2274,13 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2248,13 +2294,13 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2268,13 +2314,13 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2288,13 +2334,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2308,13 +2354,13 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2328,13 +2374,13 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2348,13 +2394,13 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2368,13 +2414,13 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2388,13 +2434,13 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2408,13 +2454,13 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2428,13 +2474,13 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2448,13 +2494,13 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2468,13 +2514,13 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2488,13 +2534,13 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2508,13 +2554,13 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2528,13 +2574,13 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2548,13 +2594,13 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2568,13 +2614,13 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2588,13 +2634,13 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2608,13 +2654,13 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2628,13 +2674,13 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2648,13 +2694,13 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2668,13 +2714,13 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2688,13 +2734,13 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2708,13 +2754,13 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2728,13 +2774,13 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2748,13 +2794,13 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2768,13 +2814,13 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2788,13 +2834,13 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2808,13 +2854,13 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2828,13 +2874,13 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2848,13 +2894,13 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2868,13 +2914,13 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2888,13 +2934,13 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2908,13 +2954,13 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2928,13 +2974,13 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2948,13 +2994,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2968,13 +3014,13 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2988,13 +3034,13 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -3008,13 +3054,13 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -3028,13 +3074,13 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -3048,13 +3094,13 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3068,13 +3114,13 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -3088,13 +3134,13 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -3108,13 +3154,13 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -3128,13 +3174,13 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -3148,13 +3194,13 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -3168,13 +3214,13 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D52" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3188,13 +3234,13 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -3208,13 +3254,13 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3228,13 +3274,13 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -3248,13 +3294,13 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -3268,13 +3314,13 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3288,13 +3334,13 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -3308,13 +3354,13 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -3328,13 +3374,13 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -3348,13 +3394,13 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -3368,13 +3414,13 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3388,13 +3434,13 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -3408,13 +3454,13 @@
         <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -3428,13 +3474,13 @@
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -3448,13 +3494,13 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3468,13 +3514,13 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E67" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -3488,13 +3534,13 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E68" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -3508,13 +3554,13 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -3528,13 +3574,13 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -3548,13 +3594,13 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E71" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -3568,13 +3614,13 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3588,13 +3634,13 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E73" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3608,13 +3654,13 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -3628,13 +3674,13 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -3648,13 +3694,13 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F76">
         <v>3</v>
@@ -3668,13 +3714,13 @@
         <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E77" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -3688,13 +3734,13 @@
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E78" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -3708,13 +3754,13 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E79" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F79">
         <v>3</v>
@@ -3728,13 +3774,13 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -3748,13 +3794,13 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F81">
         <v>3</v>
@@ -3768,13 +3814,13 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E82" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F82">
         <v>3</v>
@@ -3788,13 +3834,13 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D83" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -3808,13 +3854,13 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -3828,13 +3874,13 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E85" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -3848,13 +3894,13 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F86">
         <v>3</v>
@@ -3868,13 +3914,13 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E87" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -3888,13 +3934,13 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E88" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -3908,13 +3954,13 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E89" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -3928,13 +3974,13 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -3948,13 +3994,13 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E91" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F91">
         <v>3</v>
@@ -3968,13 +4014,13 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -3988,13 +4034,13 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -4008,13 +4054,13 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E94" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -4028,13 +4074,13 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E95" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -4048,13 +4094,13 @@
         <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -4068,13 +4114,13 @@
         <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D97" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E97" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -4088,13 +4134,13 @@
         <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E98" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -4108,13 +4154,13 @@
         <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E99" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F99">
         <v>3</v>
@@ -4128,13 +4174,13 @@
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -4148,13 +4194,13 @@
         <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D101" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E101" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -4168,13 +4214,13 @@
         <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F102">
         <v>3</v>
@@ -4188,13 +4234,13 @@
         <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D103" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E103" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -4208,13 +4254,13 @@
         <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E104" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -4228,13 +4274,13 @@
         <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D105" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E105" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F105">
         <v>3</v>
@@ -4248,13 +4294,13 @@
         <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E106" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -4268,13 +4314,13 @@
         <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E107" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -4288,13 +4334,13 @@
         <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D108" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E108" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -4308,13 +4354,13 @@
         <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E109" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -4328,13 +4374,13 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D110" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -4348,13 +4394,13 @@
         <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F111">
         <v>3</v>
@@ -4368,13 +4414,13 @@
         <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E112" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F112">
         <v>3</v>
@@ -4388,13 +4434,13 @@
         <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D113" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -4408,13 +4454,13 @@
         <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D114" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E114" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -4428,13 +4474,13 @@
         <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E115" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -4448,13 +4494,13 @@
         <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -4468,13 +4514,13 @@
         <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D117" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E117" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -4488,13 +4534,13 @@
         <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E118" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F118">
         <v>3</v>
@@ -4508,13 +4554,13 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -4528,13 +4574,13 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D120" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E120" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -4548,13 +4594,13 @@
         <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E121" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -4568,13 +4614,13 @@
         <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D122" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E122" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -4588,13 +4634,13 @@
         <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D123" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E123" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -4608,13 +4654,13 @@
         <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F124">
         <v>3</v>
@@ -4628,13 +4674,13 @@
         <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E125" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -4648,13 +4694,13 @@
         <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E126" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -4668,13 +4714,13 @@
         <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E127" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F127">
         <v>3</v>
@@ -4688,13 +4734,13 @@
         <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D128" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -4708,13 +4754,13 @@
         <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D129" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E129" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F129">
         <v>3</v>
@@ -4728,13 +4774,13 @@
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E130" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F130">
         <v>3</v>
@@ -4748,13 +4794,13 @@
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D131" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E131" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F131">
         <v>3</v>
@@ -4768,13 +4814,13 @@
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D132" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E132" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -4788,13 +4834,13 @@
         <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D133" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E133" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F133">
         <v>3</v>
@@ -4808,13 +4854,13 @@
         <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E134" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F134">
         <v>3</v>
@@ -4828,13 +4874,13 @@
         <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D135" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E135" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F135">
         <v>3</v>
@@ -4848,13 +4894,13 @@
         <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E136" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F136">
         <v>3</v>
@@ -4868,13 +4914,13 @@
         <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E137" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -4888,13 +4934,13 @@
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E138" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -4908,13 +4954,13 @@
         <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D139" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E139" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F139">
         <v>3</v>
@@ -4928,13 +4974,13 @@
         <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D140" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E140" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F140">
         <v>3</v>
@@ -4948,13 +4994,13 @@
         <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E141" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F141">
         <v>3</v>
@@ -4968,13 +5014,13 @@
         <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E142" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F142">
         <v>3</v>
@@ -4988,13 +5034,13 @@
         <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D143" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E143" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F143">
         <v>3</v>
@@ -5008,13 +5054,13 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E144" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F144">
         <v>3</v>
@@ -5028,13 +5074,13 @@
         <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E145" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F145">
         <v>3</v>
@@ -5048,13 +5094,13 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E146" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F146">
         <v>3</v>
@@ -5068,13 +5114,13 @@
         <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D147" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E147" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -5088,13 +5134,13 @@
         <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E148" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F148">
         <v>3</v>
@@ -5108,13 +5154,13 @@
         <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D149" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E149" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F149">
         <v>3</v>
@@ -5128,13 +5174,13 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D150" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E150" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F150">
         <v>3</v>
@@ -5148,13 +5194,13 @@
         <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D151" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E151" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F151">
         <v>3</v>
@@ -5168,13 +5214,13 @@
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D152" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E152" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -5188,13 +5234,13 @@
         <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D153" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E153" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F153">
         <v>3</v>
@@ -5208,13 +5254,13 @@
         <v>206</v>
       </c>
       <c r="C154" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E154" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -5228,13 +5274,13 @@
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E155" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -5248,13 +5294,13 @@
         <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D156" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E156" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F156">
         <v>3</v>
@@ -5268,13 +5314,13 @@
         <v>209</v>
       </c>
       <c r="C157" t="s">
+        <v>492</v>
+      </c>
+      <c r="D157" t="s">
         <v>493</v>
       </c>
-      <c r="D157" t="s">
-        <v>494</v>
-      </c>
       <c r="E157" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F157">
         <v>3</v>
@@ -5287,24 +5333,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.83203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>332</v>
@@ -5316,19 +5360,13 @@
         <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5339,16 +5377,13 @@
         <v>44355</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5359,16 +5394,13 @@
         <v>44488</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5379,17 +5411,61 @@
         <v>44034</v>
       </c>
       <c r="D4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
+        <v>498</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946187BE-39B4-8B47-A917-94E24653E029}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="15">
+        <v>25</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8840,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -22506,7 +22582,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22554,13 +22630,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22571,13 +22647,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22588,13 +22664,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22642,7 +22718,7 @@
         <v>268</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22733,7 +22809,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>271</v>
@@ -22745,7 +22821,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22753,7 +22829,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>272</v>
@@ -22765,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22773,7 +22849,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>271</v>
@@ -22785,7 +22861,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22793,7 +22869,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>272</v>
@@ -22805,7 +22881,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22813,7 +22889,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>271</v>
@@ -22825,7 +22901,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -22833,7 +22909,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>272</v>
@@ -22845,7 +22921,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -23114,31 +23190,31 @@
         <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438ADDA-3C0F-1E42-8A34-98D73E74E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803CD03-A461-8C4D-926F-74622520695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="522">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1607,6 +1607,12 @@
   </si>
   <si>
     <t>Polar HILIC is the way to go!</t>
+  </si>
+  <si>
+    <t>glutamine-[13C5,15N2][200]</t>
+  </si>
+  <si>
+    <t>alanine-[13C3,15N1][180]</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1623,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1669,6 +1675,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1711,7 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1740,6 +1752,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5426,7 +5439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946187BE-39B4-8B47-A917-94E24653E029}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5449,7 +5462,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>517</v>
       </c>
@@ -5473,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5482,7 +5495,7 @@
   <cols>
     <col min="2" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
@@ -5541,8 +5554,8 @@
       <c r="E2" s="4">
         <v>26.4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
+      <c r="F2" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -5576,8 +5589,8 @@
       <c r="E3" s="4">
         <v>27.5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
+      <c r="F3" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -5611,8 +5624,8 @@
       <c r="E4" s="4">
         <v>27.1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
+      <c r="F4" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -5646,8 +5659,8 @@
       <c r="E5" s="4">
         <v>42.6</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
+      <c r="F5" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="G5" s="4">
         <v>7.0999999999999994E-2</v>
@@ -5681,8 +5694,8 @@
       <c r="E6" s="4">
         <v>44.1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
+      <c r="F6" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="G6" s="4">
         <v>6.8000000000000005E-2</v>
@@ -5716,8 +5729,8 @@
       <c r="E7" s="4">
         <v>46</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
+      <c r="F7" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="G7" s="4">
         <v>6.5000000000000002E-2</v>
@@ -5751,8 +5764,8 @@
       <c r="E8" s="4">
         <v>27.5</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
+      <c r="F8" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="G8" s="4">
         <v>0.1</v>
@@ -5786,8 +5799,8 @@
       <c r="E9" s="4">
         <v>27.5</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
+      <c r="F9" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="G9" s="4">
         <v>0.1</v>
@@ -5821,8 +5834,8 @@
       <c r="E10" s="4">
         <v>28.4</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
+      <c r="F10" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="G10" s="4">
         <v>0.106</v>
@@ -5856,8 +5869,8 @@
       <c r="E11" s="4">
         <v>28.7</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
+      <c r="F11" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="G11" s="4">
         <v>0.105</v>
@@ -5891,8 +5904,8 @@
       <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
+      <c r="F12" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="G12" s="4">
         <v>0.06</v>
@@ -5926,8 +5939,8 @@
       <c r="E13" s="4">
         <v>54.3</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>26</v>
+      <c r="F13" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="G13" s="4">
         <v>5.5E-2</v>

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803CD03-A461-8C4D-926F-74622520695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E5BDA4-CEFB-724B-B40F-1F276815F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="522">
   <si>
     <t>Animal ID</t>
   </si>
@@ -2135,45 +2135,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>258</v>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>504</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="14" t="s">
         <v>213</v>
       </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5486,7 +5479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E5BDA4-CEFB-724B-B40F-1F276815F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688BBBF9-B8AC-DD46-84F3-E4CD7459BE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId11"/>
+    <sheet name="MS Runs" sheetId="10" r:id="rId11"/>
     <sheet name="LC Protocols" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="519">
   <si>
     <t>Animal ID</t>
   </si>
@@ -838,9 +838,6 @@
     <t>Tracer Concentration</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Tracer Number</t>
   </si>
   <si>
@@ -1540,21 +1537,12 @@
     <t>isocorr</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>HILIC</t>
   </si>
   <si>
     <t>polar-HILIC</t>
   </si>
   <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
@@ -1564,9 +1552,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Sample Name Prefix</t>
-  </si>
-  <si>
     <t>BCAAs (VLI) {valine-[13C5,15N1]; leucine-[13C6,15N1]; isoleucine-[13C6,15N1]}</t>
   </si>
   <si>
@@ -1594,9 +1579,6 @@
     <t>isoleucine-[13C6,15N1]</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
     <t>LC Protocol Name</t>
   </si>
   <si>
@@ -1613,6 +1595,15 @@
   </si>
   <si>
     <t>alanine-[13C3,15N1][180]</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2147,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>213</v>
@@ -2177,9 +2168,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2187,32 +2180,28 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2220,19 +2209,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -2240,19 +2223,13 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -2260,19 +2237,13 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -2280,19 +2251,13 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -2300,19 +2265,13 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E6" t="s">
-        <v>497</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -2320,19 +2279,13 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -2340,19 +2293,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E8" t="s">
-        <v>497</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -2360,19 +2307,13 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" t="s">
-        <v>497</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -2380,19 +2321,13 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
-      </c>
-      <c r="E10" t="s">
-        <v>497</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2400,19 +2335,13 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
-      </c>
-      <c r="E11" t="s">
-        <v>497</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -2420,19 +2349,13 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
-      </c>
-      <c r="E12" t="s">
-        <v>497</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -2440,19 +2363,13 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
-      </c>
-      <c r="E13" t="s">
-        <v>497</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -2460,19 +2377,13 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" t="s">
-        <v>497</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -2480,19 +2391,13 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -2500,19 +2405,13 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>494</v>
-      </c>
-      <c r="E16" t="s">
-        <v>497</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -2520,19 +2419,13 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>494</v>
-      </c>
-      <c r="E17" t="s">
-        <v>497</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -2540,19 +2433,13 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
-      </c>
-      <c r="E18" t="s">
-        <v>497</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -2560,19 +2447,13 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>494</v>
-      </c>
-      <c r="E19" t="s">
-        <v>497</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2580,19 +2461,13 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
-      </c>
-      <c r="E20" t="s">
-        <v>497</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -2600,19 +2475,13 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
-      </c>
-      <c r="E21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -2620,19 +2489,13 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>494</v>
-      </c>
-      <c r="E22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -2640,19 +2503,13 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
-      </c>
-      <c r="E23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -2660,19 +2517,13 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E24" t="s">
-        <v>497</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -2680,19 +2531,13 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E25" t="s">
-        <v>497</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2700,19 +2545,13 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
-      </c>
-      <c r="E26" t="s">
-        <v>497</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
@@ -2720,19 +2559,13 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E27" t="s">
-        <v>497</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -2740,19 +2573,13 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
-      </c>
-      <c r="E28" t="s">
-        <v>497</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
@@ -2760,19 +2587,13 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
-      </c>
-      <c r="E29" t="s">
-        <v>497</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2780,19 +2601,13 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>494</v>
-      </c>
-      <c r="E30" t="s">
-        <v>497</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -2800,19 +2615,13 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
-      </c>
-      <c r="E31" t="s">
-        <v>497</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -2820,19 +2629,13 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
-      </c>
-      <c r="E32" t="s">
-        <v>497</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -2840,19 +2643,13 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
-      </c>
-      <c r="E33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -2860,19 +2657,13 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
-      </c>
-      <c r="E34" t="s">
-        <v>497</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2880,19 +2671,13 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
-      </c>
-      <c r="E35" t="s">
-        <v>497</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -2900,19 +2685,13 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>494</v>
-      </c>
-      <c r="E36" t="s">
-        <v>497</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -2920,19 +2699,13 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>494</v>
-      </c>
-      <c r="E37" t="s">
-        <v>497</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -2940,19 +2713,13 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>495</v>
-      </c>
-      <c r="E38" t="s">
-        <v>497</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -2960,19 +2727,13 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>495</v>
-      </c>
-      <c r="E39" t="s">
-        <v>497</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -2980,19 +2741,13 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>495</v>
-      </c>
-      <c r="E40" t="s">
-        <v>497</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
@@ -3000,19 +2755,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
-      </c>
-      <c r="E41" t="s">
-        <v>497</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
@@ -3020,19 +2769,13 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>495</v>
-      </c>
-      <c r="E42" t="s">
-        <v>497</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3040,19 +2783,13 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
-      </c>
-      <c r="E43" t="s">
-        <v>497</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -3060,19 +2797,13 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>495</v>
-      </c>
-      <c r="E44" t="s">
-        <v>497</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
@@ -3080,19 +2811,13 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>495</v>
-      </c>
-      <c r="E45" t="s">
-        <v>497</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>95</v>
       </c>
@@ -3100,19 +2825,13 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>495</v>
-      </c>
-      <c r="E46" t="s">
-        <v>497</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -3120,19 +2839,13 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D47" t="s">
-        <v>495</v>
-      </c>
-      <c r="E47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -3140,19 +2853,13 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
-        <v>495</v>
-      </c>
-      <c r="E48" t="s">
-        <v>497</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
@@ -3160,19 +2867,13 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>495</v>
-      </c>
-      <c r="E49" t="s">
-        <v>497</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -3180,19 +2881,13 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>495</v>
-      </c>
-      <c r="E50" t="s">
-        <v>497</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -3200,19 +2895,13 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>495</v>
-      </c>
-      <c r="E51" t="s">
-        <v>497</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
@@ -3220,19 +2909,13 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D52" t="s">
-        <v>495</v>
-      </c>
-      <c r="E52" t="s">
-        <v>497</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>102</v>
       </c>
@@ -3240,19 +2923,13 @@
         <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>495</v>
-      </c>
-      <c r="E53" t="s">
-        <v>497</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>103</v>
       </c>
@@ -3260,19 +2937,13 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D54" t="s">
-        <v>495</v>
-      </c>
-      <c r="E54" t="s">
-        <v>497</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>104</v>
       </c>
@@ -3280,19 +2951,13 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
-      </c>
-      <c r="E55" t="s">
-        <v>497</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -3300,19 +2965,13 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>495</v>
-      </c>
-      <c r="E56" t="s">
-        <v>497</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>106</v>
       </c>
@@ -3320,19 +2979,13 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D57" t="s">
-        <v>495</v>
-      </c>
-      <c r="E57" t="s">
-        <v>497</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>107</v>
       </c>
@@ -3340,19 +2993,13 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
-        <v>495</v>
-      </c>
-      <c r="E58" t="s">
-        <v>497</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
@@ -3360,19 +3007,13 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D59" t="s">
-        <v>495</v>
-      </c>
-      <c r="E59" t="s">
-        <v>497</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>109</v>
       </c>
@@ -3380,19 +3021,13 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
-      </c>
-      <c r="E60" t="s">
-        <v>497</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -3400,19 +3035,13 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s">
-        <v>495</v>
-      </c>
-      <c r="E61" t="s">
-        <v>497</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>111</v>
       </c>
@@ -3420,19 +3049,13 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D62" t="s">
-        <v>495</v>
-      </c>
-      <c r="E62" t="s">
-        <v>497</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>112</v>
       </c>
@@ -3440,19 +3063,13 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>495</v>
-      </c>
-      <c r="E63" t="s">
-        <v>497</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -3460,19 +3077,13 @@
         <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E64" t="s">
-        <v>497</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>114</v>
       </c>
@@ -3480,19 +3091,13 @@
         <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>495</v>
-      </c>
-      <c r="E65" t="s">
-        <v>497</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>115</v>
       </c>
@@ -3500,19 +3105,13 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>495</v>
-      </c>
-      <c r="E66" t="s">
-        <v>497</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
@@ -3520,19 +3119,13 @@
         <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D67" t="s">
-        <v>495</v>
-      </c>
-      <c r="E67" t="s">
-        <v>497</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
@@ -3540,19 +3133,13 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>495</v>
-      </c>
-      <c r="E68" t="s">
-        <v>497</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
@@ -3560,19 +3147,13 @@
         <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>495</v>
-      </c>
-      <c r="E69" t="s">
-        <v>497</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -3580,19 +3161,13 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D70" t="s">
-        <v>495</v>
-      </c>
-      <c r="E70" t="s">
-        <v>497</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>120</v>
       </c>
@@ -3600,19 +3175,13 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>495</v>
-      </c>
-      <c r="E71" t="s">
-        <v>497</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>121</v>
       </c>
@@ -3620,19 +3189,13 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>495</v>
-      </c>
-      <c r="E72" t="s">
-        <v>497</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -3640,19 +3203,13 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
-      </c>
-      <c r="E73" t="s">
-        <v>497</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -3660,19 +3217,13 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>493</v>
-      </c>
-      <c r="E74" t="s">
-        <v>497</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -3680,19 +3231,13 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
-      </c>
-      <c r="E75" t="s">
-        <v>497</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>125</v>
       </c>
@@ -3700,19 +3245,13 @@
         <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>493</v>
-      </c>
-      <c r="E76" t="s">
-        <v>497</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>126</v>
       </c>
@@ -3720,19 +3259,13 @@
         <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
-      </c>
-      <c r="E77" t="s">
-        <v>497</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>127</v>
       </c>
@@ -3740,19 +3273,13 @@
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>493</v>
-      </c>
-      <c r="E78" t="s">
-        <v>497</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>128</v>
       </c>
@@ -3760,19 +3287,13 @@
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>493</v>
-      </c>
-      <c r="E79" t="s">
-        <v>497</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>129</v>
       </c>
@@ -3780,19 +3301,13 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>493</v>
-      </c>
-      <c r="E80" t="s">
-        <v>497</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>130</v>
       </c>
@@ -3800,19 +3315,13 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>493</v>
-      </c>
-      <c r="E81" t="s">
-        <v>497</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>131</v>
       </c>
@@ -3820,19 +3329,13 @@
         <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>493</v>
-      </c>
-      <c r="E82" t="s">
-        <v>497</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>132</v>
       </c>
@@ -3840,19 +3343,13 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>493</v>
-      </c>
-      <c r="E83" t="s">
-        <v>497</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>133</v>
       </c>
@@ -3860,19 +3357,13 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>493</v>
-      </c>
-      <c r="E84" t="s">
-        <v>497</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>134</v>
       </c>
@@ -3880,19 +3371,13 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D85" t="s">
-        <v>493</v>
-      </c>
-      <c r="E85" t="s">
-        <v>497</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>135</v>
       </c>
@@ -3900,19 +3385,13 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>493</v>
-      </c>
-      <c r="E86" t="s">
-        <v>497</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>136</v>
       </c>
@@ -3920,19 +3399,13 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>493</v>
-      </c>
-      <c r="E87" t="s">
-        <v>497</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>137</v>
       </c>
@@ -3940,19 +3413,13 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>493</v>
-      </c>
-      <c r="E88" t="s">
-        <v>497</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>138</v>
       </c>
@@ -3960,19 +3427,13 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>493</v>
-      </c>
-      <c r="E89" t="s">
-        <v>497</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>139</v>
       </c>
@@ -3980,19 +3441,13 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>493</v>
-      </c>
-      <c r="E90" t="s">
-        <v>497</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>140</v>
       </c>
@@ -4000,19 +3455,13 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E91" t="s">
-        <v>497</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>141</v>
       </c>
@@ -4020,19 +3469,13 @@
         <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>493</v>
-      </c>
-      <c r="E92" t="s">
-        <v>497</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>142</v>
       </c>
@@ -4040,19 +3483,13 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>493</v>
-      </c>
-      <c r="E93" t="s">
-        <v>497</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>143</v>
       </c>
@@ -4060,19 +3497,13 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
-        <v>493</v>
-      </c>
-      <c r="E94" t="s">
-        <v>497</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>144</v>
       </c>
@@ -4080,19 +3511,13 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
-        <v>493</v>
-      </c>
-      <c r="E95" t="s">
-        <v>497</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>145</v>
       </c>
@@ -4100,19 +3525,13 @@
         <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D96" t="s">
-        <v>493</v>
-      </c>
-      <c r="E96" t="s">
-        <v>497</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>146</v>
       </c>
@@ -4120,19 +3539,13 @@
         <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D97" t="s">
-        <v>493</v>
-      </c>
-      <c r="E97" t="s">
-        <v>497</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>147</v>
       </c>
@@ -4140,19 +3553,13 @@
         <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D98" t="s">
-        <v>493</v>
-      </c>
-      <c r="E98" t="s">
-        <v>497</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>148</v>
       </c>
@@ -4160,19 +3567,13 @@
         <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>493</v>
-      </c>
-      <c r="E99" t="s">
-        <v>497</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>149</v>
       </c>
@@ -4180,19 +3581,13 @@
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D100" t="s">
-        <v>493</v>
-      </c>
-      <c r="E100" t="s">
-        <v>497</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>151</v>
       </c>
@@ -4200,19 +3595,13 @@
         <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D101" t="s">
-        <v>493</v>
-      </c>
-      <c r="E101" t="s">
-        <v>497</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>152</v>
       </c>
@@ -4220,19 +3609,13 @@
         <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>493</v>
-      </c>
-      <c r="E102" t="s">
-        <v>497</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>153</v>
       </c>
@@ -4240,19 +3623,13 @@
         <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>493</v>
-      </c>
-      <c r="E103" t="s">
-        <v>497</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>154</v>
       </c>
@@ -4260,19 +3637,13 @@
         <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>493</v>
-      </c>
-      <c r="E104" t="s">
-        <v>497</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>155</v>
       </c>
@@ -4280,19 +3651,13 @@
         <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D105" t="s">
-        <v>493</v>
-      </c>
-      <c r="E105" t="s">
-        <v>497</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>156</v>
       </c>
@@ -4300,19 +3665,13 @@
         <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
-        <v>493</v>
-      </c>
-      <c r="E106" t="s">
-        <v>497</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
@@ -4320,19 +3679,13 @@
         <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D107" t="s">
-        <v>493</v>
-      </c>
-      <c r="E107" t="s">
-        <v>497</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>158</v>
       </c>
@@ -4340,19 +3693,13 @@
         <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>493</v>
-      </c>
-      <c r="E108" t="s">
-        <v>497</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>159</v>
       </c>
@@ -4360,19 +3707,13 @@
         <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>493</v>
-      </c>
-      <c r="E109" t="s">
-        <v>497</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>161</v>
       </c>
@@ -4380,19 +3721,13 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
-      </c>
-      <c r="E110" t="s">
-        <v>497</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>163</v>
       </c>
@@ -4400,19 +3735,13 @@
         <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D111" t="s">
-        <v>493</v>
-      </c>
-      <c r="E111" t="s">
-        <v>497</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>164</v>
       </c>
@@ -4420,19 +3749,13 @@
         <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>493</v>
-      </c>
-      <c r="E112" t="s">
-        <v>497</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>165</v>
       </c>
@@ -4440,19 +3763,13 @@
         <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
-      </c>
-      <c r="E113" t="s">
-        <v>497</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>166</v>
       </c>
@@ -4460,19 +3777,13 @@
         <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D114" t="s">
-        <v>493</v>
-      </c>
-      <c r="E114" t="s">
-        <v>497</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>167</v>
       </c>
@@ -4480,19 +3791,13 @@
         <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D115" t="s">
-        <v>493</v>
-      </c>
-      <c r="E115" t="s">
-        <v>497</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>168</v>
       </c>
@@ -4500,19 +3805,13 @@
         <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>493</v>
-      </c>
-      <c r="E116" t="s">
-        <v>497</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>169</v>
       </c>
@@ -4520,19 +3819,13 @@
         <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>493</v>
-      </c>
-      <c r="E117" t="s">
-        <v>497</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>170</v>
       </c>
@@ -4540,19 +3833,13 @@
         <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>493</v>
-      </c>
-      <c r="E118" t="s">
-        <v>497</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>171</v>
       </c>
@@ -4560,19 +3847,13 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
-      </c>
-      <c r="E119" t="s">
-        <v>497</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>172</v>
       </c>
@@ -4580,19 +3861,13 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>493</v>
-      </c>
-      <c r="E120" t="s">
-        <v>497</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>173</v>
       </c>
@@ -4600,19 +3875,13 @@
         <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>493</v>
-      </c>
-      <c r="E121" t="s">
-        <v>497</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>174</v>
       </c>
@@ -4620,19 +3889,13 @@
         <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>493</v>
-      </c>
-      <c r="E122" t="s">
-        <v>497</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>175</v>
       </c>
@@ -4640,19 +3903,13 @@
         <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>493</v>
-      </c>
-      <c r="E123" t="s">
-        <v>497</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>176</v>
       </c>
@@ -4660,19 +3917,13 @@
         <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>493</v>
-      </c>
-      <c r="E124" t="s">
-        <v>497</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>177</v>
       </c>
@@ -4680,19 +3931,13 @@
         <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
-        <v>493</v>
-      </c>
-      <c r="E125" t="s">
-        <v>497</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>178</v>
       </c>
@@ -4700,19 +3945,13 @@
         <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D126" t="s">
-        <v>493</v>
-      </c>
-      <c r="E126" t="s">
-        <v>497</v>
-      </c>
-      <c r="F126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>179</v>
       </c>
@@ -4720,19 +3959,13 @@
         <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>493</v>
-      </c>
-      <c r="E127" t="s">
-        <v>497</v>
-      </c>
-      <c r="F127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>180</v>
       </c>
@@ -4740,19 +3973,13 @@
         <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D128" t="s">
-        <v>493</v>
-      </c>
-      <c r="E128" t="s">
-        <v>497</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>181</v>
       </c>
@@ -4760,19 +3987,13 @@
         <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D129" t="s">
-        <v>493</v>
-      </c>
-      <c r="E129" t="s">
-        <v>497</v>
-      </c>
-      <c r="F129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>182</v>
       </c>
@@ -4780,19 +4001,13 @@
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D130" t="s">
-        <v>493</v>
-      </c>
-      <c r="E130" t="s">
-        <v>497</v>
-      </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>183</v>
       </c>
@@ -4800,19 +4015,13 @@
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D131" t="s">
-        <v>493</v>
-      </c>
-      <c r="E131" t="s">
-        <v>497</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>184</v>
       </c>
@@ -4820,19 +4029,13 @@
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D132" t="s">
-        <v>493</v>
-      </c>
-      <c r="E132" t="s">
-        <v>497</v>
-      </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>185</v>
       </c>
@@ -4840,19 +4043,13 @@
         <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>493</v>
-      </c>
-      <c r="E133" t="s">
-        <v>497</v>
-      </c>
-      <c r="F133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>186</v>
       </c>
@@ -4860,19 +4057,13 @@
         <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
-      </c>
-      <c r="E134" t="s">
-        <v>497</v>
-      </c>
-      <c r="F134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>187</v>
       </c>
@@ -4880,19 +4071,13 @@
         <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D135" t="s">
-        <v>493</v>
-      </c>
-      <c r="E135" t="s">
-        <v>497</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>188</v>
       </c>
@@ -4900,19 +4085,13 @@
         <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>493</v>
-      </c>
-      <c r="E136" t="s">
-        <v>497</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>189</v>
       </c>
@@ -4920,19 +4099,13 @@
         <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D137" t="s">
-        <v>493</v>
-      </c>
-      <c r="E137" t="s">
-        <v>497</v>
-      </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>190</v>
       </c>
@@ -4940,19 +4113,13 @@
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D138" t="s">
-        <v>493</v>
-      </c>
-      <c r="E138" t="s">
-        <v>497</v>
-      </c>
-      <c r="F138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>191</v>
       </c>
@@ -4960,19 +4127,13 @@
         <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D139" t="s">
-        <v>493</v>
-      </c>
-      <c r="E139" t="s">
-        <v>497</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>192</v>
       </c>
@@ -4980,19 +4141,13 @@
         <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D140" t="s">
-        <v>493</v>
-      </c>
-      <c r="E140" t="s">
-        <v>497</v>
-      </c>
-      <c r="F140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>193</v>
       </c>
@@ -5000,19 +4155,13 @@
         <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D141" t="s">
-        <v>493</v>
-      </c>
-      <c r="E141" t="s">
-        <v>497</v>
-      </c>
-      <c r="F141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>194</v>
       </c>
@@ -5020,19 +4169,13 @@
         <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D142" t="s">
-        <v>493</v>
-      </c>
-      <c r="E142" t="s">
-        <v>497</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>195</v>
       </c>
@@ -5040,19 +4183,13 @@
         <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D143" t="s">
-        <v>493</v>
-      </c>
-      <c r="E143" t="s">
-        <v>497</v>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>196</v>
       </c>
@@ -5060,19 +4197,13 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>493</v>
-      </c>
-      <c r="E144" t="s">
-        <v>497</v>
-      </c>
-      <c r="F144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>197</v>
       </c>
@@ -5080,19 +4211,13 @@
         <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>493</v>
-      </c>
-      <c r="E145" t="s">
-        <v>497</v>
-      </c>
-      <c r="F145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>198</v>
       </c>
@@ -5100,19 +4225,13 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>493</v>
-      </c>
-      <c r="E146" t="s">
-        <v>497</v>
-      </c>
-      <c r="F146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>199</v>
       </c>
@@ -5120,19 +4239,13 @@
         <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D147" t="s">
-        <v>493</v>
-      </c>
-      <c r="E147" t="s">
-        <v>497</v>
-      </c>
-      <c r="F147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>200</v>
       </c>
@@ -5140,19 +4253,13 @@
         <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>493</v>
-      </c>
-      <c r="E148" t="s">
-        <v>497</v>
-      </c>
-      <c r="F148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>201</v>
       </c>
@@ -5160,19 +4267,13 @@
         <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D149" t="s">
-        <v>493</v>
-      </c>
-      <c r="E149" t="s">
-        <v>497</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>202</v>
       </c>
@@ -5180,19 +4281,13 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>493</v>
-      </c>
-      <c r="E150" t="s">
-        <v>497</v>
-      </c>
-      <c r="F150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>203</v>
       </c>
@@ -5200,19 +4295,13 @@
         <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
-        <v>493</v>
-      </c>
-      <c r="E151" t="s">
-        <v>497</v>
-      </c>
-      <c r="F151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>204</v>
       </c>
@@ -5220,19 +4309,13 @@
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>493</v>
-      </c>
-      <c r="E152" t="s">
-        <v>497</v>
-      </c>
-      <c r="F152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>205</v>
       </c>
@@ -5240,19 +4323,13 @@
         <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s">
-        <v>493</v>
-      </c>
-      <c r="E153" t="s">
-        <v>497</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>206</v>
       </c>
@@ -5260,19 +4337,13 @@
         <v>206</v>
       </c>
       <c r="C154" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
-      </c>
-      <c r="E154" t="s">
-        <v>497</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>207</v>
       </c>
@@ -5280,19 +4351,13 @@
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D155" t="s">
-        <v>493</v>
-      </c>
-      <c r="E155" t="s">
-        <v>497</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>208</v>
       </c>
@@ -5300,19 +4365,13 @@
         <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D156" t="s">
-        <v>493</v>
-      </c>
-      <c r="E156" t="s">
-        <v>497</v>
-      </c>
-      <c r="F156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>209</v>
       </c>
@@ -5320,16 +4379,10 @@
         <v>209</v>
       </c>
       <c r="C157" t="s">
+        <v>491</v>
+      </c>
+      <c r="D157" t="s">
         <v>492</v>
-      </c>
-      <c r="D157" t="s">
-        <v>493</v>
-      </c>
-      <c r="E157" t="s">
-        <v>497</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5341,7 +4394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5354,22 +4409,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -5383,10 +4438,10 @@
         <v>44355</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -5400,10 +4455,10 @@
         <v>44488</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -5417,10 +4472,10 @@
         <v>44034</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5443,13 +4498,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>213</v>
@@ -5457,16 +4512,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5548,7 +4603,7 @@
         <v>26.4</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -5583,7 +4638,7 @@
         <v>27.5</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -5618,7 +4673,7 @@
         <v>27.1</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -5653,7 +4708,7 @@
         <v>42.6</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G5" s="4">
         <v>7.0999999999999994E-2</v>
@@ -5688,7 +4743,7 @@
         <v>44.1</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G6" s="4">
         <v>6.8000000000000005E-2</v>
@@ -5723,7 +4778,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G7" s="4">
         <v>6.5000000000000002E-2</v>
@@ -5758,7 +4813,7 @@
         <v>27.5</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G8" s="4">
         <v>0.1</v>
@@ -5793,7 +4848,7 @@
         <v>27.5</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G9" s="4">
         <v>0.1</v>
@@ -5828,7 +4883,7 @@
         <v>28.4</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G10" s="4">
         <v>0.106</v>
@@ -5863,7 +4918,7 @@
         <v>28.7</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G11" s="4">
         <v>0.105</v>
@@ -5898,7 +4953,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G12" s="4">
         <v>0.06</v>
@@ -5933,7 +4988,7 @@
         <v>54.3</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G13" s="4">
         <v>5.5E-2</v>
@@ -8922,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -22588,7 +21643,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22636,13 +21691,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -22653,13 +21708,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -22670,13 +21725,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -22691,7 +21746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22706,25 +21763,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -22735,10 +21792,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -22755,10 +21812,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -22775,10 +21832,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -22795,10 +21852,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -22815,10 +21872,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -22827,7 +21884,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -22835,10 +21892,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -22847,7 +21904,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -22855,10 +21912,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -22867,7 +21924,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -22875,10 +21932,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -22887,7 +21944,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -22895,10 +21952,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -22907,7 +21964,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -22915,10 +21972,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -22927,7 +21984,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -22957,16 +22014,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -22979,195 +22036,195 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>277</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>281</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>283</v>
-      </c>
-      <c r="D3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
         <v>285</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" t="s">
         <v>288</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>289</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>290</v>
-      </c>
-      <c r="D5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
         <v>292</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>293</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>294</v>
-      </c>
-      <c r="D6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
         <v>296</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>297</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
         <v>300</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>301</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>302</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
         <v>304</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>305</v>
-      </c>
-      <c r="D9" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
         <v>307</v>
-      </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
         <v>309</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>310</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>311</v>
-      </c>
-      <c r="D11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>314</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>315</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
         <v>317</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>318</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>319</v>
-      </c>
-      <c r="D13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
         <v>321</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>322</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>323</v>
-      </c>
-      <c r="D14" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
         <v>325</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>326</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>327</v>
-      </c>
-      <c r="D15" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -23179,7 +22236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23190,37 +22249,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688BBBF9-B8AC-DD46-84F3-E4CD7459BE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1413AE-16F4-7443-8398-2981CBB7924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="520">
   <si>
     <t>Animal ID</t>
   </si>
@@ -1604,6 +1604,9 @@
   </si>
   <si>
     <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -21619,8 +21622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21642,8 +21645,8 @@
       <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>506</v>
+      <c r="D1" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -21746,8 +21749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21780,7 +21783,7 @@
       <c r="F1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>506</v>
       </c>
       <c r="H1" s="1"/>

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1413AE-16F4-7443-8398-2981CBB7924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B021637E-F2EB-AD4A-99A7-3F954AE70ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId9"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId10"/>
-    <sheet name="MS Runs" sheetId="10" r:id="rId11"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId11"/>
     <sheet name="LC Protocols" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -4397,7 +4397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21622,7 +21622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B021637E-F2EB-AD4A-99A7-3F954AE70ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46B1D7-E86A-C14C-9228-E6446CABAE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1597,9 +1597,6 @@
     <t>alanine-[13C3,15N1][180]</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
@@ -1607,6 +1604,9 @@
   </si>
   <si>
     <t>Tracer</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2200,7 @@
         <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K1" s="14"/>
     </row>
@@ -4397,7 +4397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4412,7 +4412,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -21646,7 +21646,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22239,7 +22239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -22258,7 +22258,7 @@
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46B1D7-E86A-C14C-9228-E6446CABAE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01F7E0-152D-0247-9FF7-8C505620DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -1600,13 +1600,13 @@
     <t>MS Run</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -4397,7 +4397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4412,7 +4412,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -21646,7 +21646,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22239,7 +22239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -22258,7 +22258,7 @@
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_no_defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01F7E0-152D-0247-9FF7-8C505620DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778BAF2D-4FD0-6F4A-A23E-51E20BEF3DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="15800" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1597,9 +1597,6 @@
     <t>alanine-[13C3,15N1][180]</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -1607,6 +1604,9 @@
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -2174,7 +2174,7 @@
   <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2200,7 +2200,7 @@
         <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K1" s="14"/>
     </row>
@@ -4412,7 +4412,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>331</v>
@@ -21646,7 +21646,7 @@
         <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>262</v>
@@ -22258,7 +22258,7 @@
         <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
